--- a/GUI_stdlist.xlsx
+++ b/GUI_stdlist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Koach\Desktop\Office_guidace_System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\柯奇\py\office_guidance_sys\Office_Guidance_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA3DDF0-CAC6-499E-8C20-6B55D2F963DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="2355" windowWidth="11385" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8955" yWindow="2355" windowWidth="11385" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>std_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,11 +37,19 @@
     <t>ke</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>B123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,11 +367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -388,6 +395,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GUI_stdlist.xlsx
+++ b/GUI_stdlist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\柯奇\py\office_guidance_sys\Office_Guidance_System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Koach\Desktop\Office_guidace_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C4207D-DAE2-467D-AD93-3C78CD2F0031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="2355" windowWidth="11385" windowHeight="13245"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>std_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,11 +364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -396,11 +393,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/GUI_stdlist.xlsx
+++ b/GUI_stdlist.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Koach\Desktop\Office_guidace_System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\柯奇\py\office_guidance_sys\Office_Guidance_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C4207D-DAE2-467D-AD93-3C78CD2F0031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>std_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,13 +40,69 @@
   </si>
   <si>
     <t>kk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std_dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國企</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國企</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>櫃台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>櫃台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -376,28 +432,78 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1106108114</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(C2,工作表2!$A$2:$B$5,2,0)</f>
+        <v>12123</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(C2,工作表2!$A$1:$CL$5,3,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(C3,工作表2!$A$2:$B$5,2,0)</f>
+        <v>124887</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(C3,工作表2!$A$1:$CL$5,3,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(C4,工作表2!$A$2:$B$5,2,0)</f>
+        <v>121212</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(C4,工作表2!$A$1:$CL$5,3,0)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -405,4 +511,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>12123</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>121212</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>12121212</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>124887</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GUI_stdlist.xlsx
+++ b/GUI_stdlist.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -460,8 +460,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(C2,工作表2!$A$2:$B$5,2,0)</f>
-        <v>12123</v>
+        <v>22222</v>
       </c>
       <c r="E2">
         <f>VLOOKUP(C2,工作表2!$A$1:$CL$5,3,0)</f>
@@ -479,8 +478,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(C3,工作表2!$A$2:$B$5,2,0)</f>
-        <v>124887</v>
+        <v>22222</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(C3,工作表2!$A$1:$CL$5,3,0)</f>
@@ -498,8 +496,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(C4,工作表2!$A$2:$B$5,2,0)</f>
-        <v>121212</v>
+        <v>22222</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(C4,工作表2!$A$1:$CL$5,3,0)</f>
